--- a/logs/charts_results_files/data_ws_6.xlsx
+++ b/logs/charts_results_files/data_ws_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ED0C9F-6D83-4B99-B142-CEB6637C23CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49652386-984E-4402-BB35-C144CABDCEB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Propensities" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,9 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> WS</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>BA</a:t>
-            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2598,16 +2595,16 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>-1.0558602945938065</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>-0.58376769011486496</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>-0.89359559471878602</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2728,7 +2725,7 @@
         <v>-1.3692282949590899</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2751,7 +2748,7 @@
         <v>-1.0609472784583001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2774,7 +2771,7 @@
         <v>-1.3556793329114301</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>-0.42408934569330498</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2820,7 +2817,7 @@
         <v>-0.50094163098239597</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>-1.1211549218233301</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2866,7 +2863,7 @@
         <v>-0.64636368006497602</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>-1.5912625123078099</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2912,7 +2909,7 @@
         <v>-0.80775236723532295</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2935,7 +2932,7 @@
         <v>-1.41646402394931</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2958,7 +2955,7 @@
         <v>-1.1522304230919</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2981,7 +2978,7 @@
         <v>-1.02534415000868</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>-1.1693577408157301</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>-1.1015512821745499</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>-0.73663604679627204</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>-0.74916253860402005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>-0.83322984002909395</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3119,7 +3116,7 @@
         <v>-0.97867819761122099</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>-1.0286639272828699</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3165,7 +3162,7 @@
         <v>-1.2860158913289901</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3188,7 +3185,7 @@
         <v>-0.80522652417950902</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>-1.65774426858455</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3234,7 +3231,7 @@
         <v>-1.6057834795339201</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3257,7 +3254,7 @@
         <v>-1.12471190913129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>-1.2045982395606001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3303,7 +3300,7 @@
         <v>-1.2892248554614301</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3326,7 +3323,7 @@
         <v>-1.2538023640952101</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3363,13 +3360,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3392,7 +3389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>11.1433</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3444,7 +3441,7 @@
         <v>11.096</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>10.765000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3490,7 +3487,7 @@
         <v>12.334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3513,7 +3510,7 @@
         <v>11.754</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3536,7 +3533,7 @@
         <v>11.726000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>10.784000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>10.019</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3605,7 +3602,7 @@
         <v>11.547000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3628,7 +3625,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>11.727</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3697,7 +3694,7 @@
         <v>11.276999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3720,7 +3717,7 @@
         <v>10.987</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3743,7 +3740,7 @@
         <v>10.268000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>10.991</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>10.909000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3858,7 +3855,7 @@
         <v>10.250999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3881,7 +3878,7 @@
         <v>11.624000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>12.125999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3927,7 +3924,7 @@
         <v>12.032999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3950,7 +3947,7 @@
         <v>11.981</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3973,7 +3970,7 @@
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>11.629</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>10.926</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>11.002000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>10.663</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4088,7 +4085,7 @@
         <v>10.395</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4125,14 +4122,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4160,7 @@
         <v>4.0989526860193486</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4177,7 +4174,7 @@
         <v>4.1053393393393396</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4191,7 +4188,7 @@
         <v>4.0942462462462403</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4205,7 +4202,7 @@
         <v>4.1048728728728703</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>4.1012612612612598</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4233,7 +4230,7 @@
         <v>4.0990370370370304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4247,7 +4244,7 @@
         <v>4.0941701701701696</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4261,7 +4258,7 @@
         <v>4.09475675675675</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4275,7 +4272,7 @@
         <v>4.1046226226226201</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>4.0991691691691603</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4303,7 +4300,7 @@
         <v>4.1022982982982903</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4317,7 +4314,7 @@
         <v>4.1006846846846798</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4331,7 +4328,7 @@
         <v>4.1012052052051997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4345,7 +4342,7 @@
         <v>4.10298498498498</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4359,7 +4356,7 @@
         <v>4.0963863863863796</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4373,7 +4370,7 @@
         <v>4.1009649649649598</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4387,7 +4384,7 @@
         <v>4.0954254254254199</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>4.0980520520520498</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4415,7 +4412,7 @@
         <v>4.0959299299299303</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4429,7 +4426,7 @@
         <v>4.1022282282282196</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>4.0960860860860802</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4457,7 +4454,7 @@
         <v>4.0939079079078997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4471,7 +4468,7 @@
         <v>4.1018958958958898</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4485,7 +4482,7 @@
         <v>4.1071011011011</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4499,7 +4496,7 @@
         <v>4.1032012012012</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4513,7 +4510,7 @@
         <v>4.0986766766766696</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4527,7 +4524,7 @@
         <v>4.0912992992992896</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4541,7 +4538,7 @@
         <v>4.1009249249249198</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>4.0976716716716703</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4569,7 +4566,7 @@
         <v>4.0877997997998001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>

--- a/logs/charts_results_files/data_ws_6.xlsx
+++ b/logs/charts_results_files/data_ws_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49652386-984E-4402-BB35-C144CABDCEB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636275CC-5A7E-44A2-8731-CA9CE3675E55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
   <si>
     <t>Average degree</t>
   </si>
@@ -2595,7 +2595,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/logs/charts_results_files/data_ws_6.xlsx
+++ b/logs/charts_results_files/data_ws_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636275CC-5A7E-44A2-8731-CA9CE3675E55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5CEC71-EC77-4CC8-B681-98DBC6FA1C41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Average degree</t>
   </si>
@@ -272,7 +272,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="588838"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
